--- a/Crosswalk_2012/Crosswalk_MostToxics.xlsx
+++ b/Crosswalk_2012/Crosswalk_MostToxics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$J$582</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$J$581</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Station!$A$1:$D$174</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="406">
   <si>
     <t>RECORD_ID</t>
   </si>
@@ -1247,6 +1247,9 @@
   </si>
   <si>
     <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
   </si>
 </sst>
 </file>
@@ -1663,18 +1666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J582"/>
+  <dimension ref="A1:J581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.140625" style="10"/>
     <col min="3" max="3" width="31.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.140625" style="10"/>
   </cols>
@@ -5109,7 +5112,7 @@
         <v>91</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>49</v>
+        <v>405</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>10</v>
@@ -5118,7 +5121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>6817</v>
       </c>
@@ -5128,8 +5131,8 @@
       <c r="C174" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D174" s="10" t="s">
-        <v>49</v>
+      <c r="D174" s="18" t="s">
+        <v>405</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>10</v>
@@ -5142,231 +5145,227 @@
     </row>
     <row r="175" spans="1:8" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
-        <v>6817</v>
+        <v>7085</v>
       </c>
       <c r="B175" s="10">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="12" t="s">
+      <c r="F175" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" spans="1:8" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
-        <v>7029</v>
+        <v>7182</v>
       </c>
       <c r="B176" s="10">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>49</v>
+        <v>101</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-    </row>
-    <row r="177" spans="1:8" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
-        <v>7085</v>
+        <v>7182</v>
       </c>
       <c r="B177" s="10">
+        <v>135</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F177" s="12"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="10">
+        <v>7186</v>
+      </c>
+      <c r="B178" s="10">
+        <v>177</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="10">
+        <v>7186</v>
+      </c>
+      <c r="B179" s="10">
+        <v>177</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A180" s="10">
+        <v>7187</v>
+      </c>
+      <c r="B180" s="13">
+        <v>60</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" s="10">
+        <v>7188</v>
+      </c>
+      <c r="B181" s="10">
+        <v>135</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" s="10">
+        <v>7284</v>
+      </c>
+      <c r="B182" s="10">
+        <v>41</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="10">
+        <v>7285</v>
+      </c>
+      <c r="B183" s="10">
+        <v>41</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="10">
+        <v>7287</v>
+      </c>
+      <c r="B184" s="10">
         <v>6</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
-        <v>7182</v>
-      </c>
-      <c r="B178" s="10">
-        <v>135</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
-        <v>7182</v>
-      </c>
-      <c r="B179" s="10">
-        <v>135</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E179" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F179" s="12"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
-        <v>7186</v>
-      </c>
-      <c r="B180" s="10">
-        <v>177</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
-        <v>7186</v>
-      </c>
-      <c r="B181" s="10">
-        <v>177</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A182" s="10">
-        <v>7187</v>
-      </c>
-      <c r="B182" s="13">
-        <v>60</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E182" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="10">
-        <v>7188</v>
-      </c>
-      <c r="B183" s="10">
-        <v>135</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A184" s="10">
-        <v>7284</v>
-      </c>
-      <c r="B184" s="10">
-        <v>41</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="D184" s="11" t="s">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F184" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F184" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
-        <v>7285</v>
+        <v>7290</v>
       </c>
       <c r="B185" s="10">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>40</v>
+        <v>279</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F185" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
-        <v>7287</v>
+        <v>7290</v>
       </c>
       <c r="B186" s="10">
         <v>6</v>
@@ -5375,7 +5374,7 @@
         <v>279</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>10</v>
@@ -5384,9 +5383,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
-        <v>7290</v>
+        <v>7307</v>
       </c>
       <c r="B187" s="10">
         <v>6</v>
@@ -5395,7 +5394,7 @@
         <v>279</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>10</v>
@@ -5404,9 +5403,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
-        <v>7290</v>
+        <v>7308</v>
       </c>
       <c r="B188" s="10">
         <v>6</v>
@@ -5415,7 +5414,7 @@
         <v>279</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>10</v>
@@ -5424,9 +5423,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
-        <v>7307</v>
+        <v>7308</v>
       </c>
       <c r="B189" s="10">
         <v>6</v>
@@ -5435,7 +5434,7 @@
         <v>279</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>10</v>
@@ -5444,7 +5443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>7308</v>
       </c>
@@ -5454,52 +5453,48 @@
       <c r="C190" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D190" s="11" t="s">
-        <v>187</v>
+      <c r="D190" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
-        <v>7308</v>
+        <v>7319</v>
       </c>
       <c r="B191" s="10">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>270</v>
+        <v>236</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F191" s="12"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
-        <v>7308</v>
+        <v>7319</v>
       </c>
       <c r="B192" s="10">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>321</v>
       </c>
+      <c r="F192" s="12"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
@@ -5512,74 +5507,76 @@
         <v>236</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F193" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
-        <v>7319</v>
+        <v>7336</v>
       </c>
       <c r="B194" s="10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>381</v>
+        <v>103</v>
       </c>
       <c r="E194" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A195" s="10">
+        <v>5260</v>
+      </c>
+      <c r="B195" s="10">
+        <v>9</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="10">
+        <v>7338</v>
+      </c>
+      <c r="B196" s="10">
+        <v>9</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E196" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F194" s="12"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="10">
-        <v>7319</v>
-      </c>
-      <c r="B195" s="10">
-        <v>66</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F195" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="10">
-        <v>7336</v>
-      </c>
-      <c r="B196" s="10">
-        <v>50</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E196" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="F196" s="12"/>
     </row>
     <row r="197" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
-        <v>5260</v>
+        <v>7338</v>
       </c>
       <c r="B197" s="10">
         <v>9</v>
@@ -5588,7 +5585,7 @@
         <v>154</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>10</v>
@@ -5597,7 +5594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <v>7338</v>
       </c>
@@ -5608,16 +5605,20 @@
         <v>154</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F198" s="12"/>
-    </row>
-    <row r="199" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
-        <v>7338</v>
+        <v>7352</v>
       </c>
       <c r="B199" s="10">
         <v>9</v>
@@ -5625,8 +5626,8 @@
       <c r="C199" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D199" s="11" t="s">
-        <v>99</v>
+      <c r="D199" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>10</v>
@@ -5635,9 +5636,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
-        <v>7338</v>
+        <v>7352</v>
       </c>
       <c r="B200" s="10">
         <v>9</v>
@@ -5645,21 +5646,17 @@
       <c r="C200" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D200" s="11" t="s">
-        <v>306</v>
+      <c r="D200" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F200" s="12"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
-        <v>7352</v>
+        <v>7354</v>
       </c>
       <c r="B201" s="10">
         <v>9</v>
@@ -5668,7 +5665,7 @@
         <v>154</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>10</v>
@@ -5677,36 +5674,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
-        <v>7352</v>
+        <v>7485</v>
       </c>
       <c r="B202" s="10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>369</v>
+        <v>237</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F202" s="12"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
-        <v>7354</v>
+        <v>7485</v>
       </c>
       <c r="B203" s="10">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>100</v>
+        <v>284</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>10</v>
@@ -5720,10 +5722,10 @@
         <v>7485</v>
       </c>
       <c r="B204" s="10">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D204" s="11" t="s">
         <v>139</v>
@@ -5733,9 +5735,6 @@
       </c>
       <c r="F204" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="G204" s="10" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -5743,10 +5742,10 @@
         <v>7485</v>
       </c>
       <c r="B205" s="10">
+        <v>50</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>139</v>
@@ -5763,10 +5762,10 @@
         <v>7485</v>
       </c>
       <c r="B206" s="10">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>139</v>
@@ -5776,6 +5775,9 @@
       </c>
       <c r="F206" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="G206" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -5783,10 +5785,10 @@
         <v>7485</v>
       </c>
       <c r="B207" s="10">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>139</v>
@@ -5794,13 +5796,13 @@
       <c r="E207" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F207" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
-        <v>7485</v>
+        <v>7588</v>
       </c>
       <c r="B208" s="10">
         <v>66</v>
@@ -5808,42 +5810,39 @@
       <c r="C208" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D208" s="11" t="s">
-        <v>139</v>
+      <c r="D208" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F208" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="10" t="s">
-        <v>245</v>
+      <c r="F208" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
-        <v>7485</v>
+        <v>7588</v>
       </c>
       <c r="B209" s="10">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F209" s="10" t="s">
-        <v>12</v>
+      <c r="F209" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="10">
-        <v>7588</v>
+        <v>7589</v>
       </c>
       <c r="B210" s="10">
         <v>66</v>
@@ -5851,55 +5850,51 @@
       <c r="C210" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D210" s="15" t="s">
-        <v>260</v>
+      <c r="D210" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F210" s="10" t="s">
-        <v>47</v>
+      <c r="F210" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
-        <v>7588</v>
+        <v>7673</v>
       </c>
       <c r="B211" s="10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F211" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="F211" s="12"/>
+    </row>
+    <row r="212" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
-        <v>7589</v>
+        <v>7673</v>
       </c>
       <c r="B212" s="10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F212" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F212" s="12"/>
     </row>
     <row r="213" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
@@ -5912,7 +5907,7 @@
         <v>48</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>290</v>
@@ -5930,12 +5925,14 @@
         <v>48</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F214" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="215" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
@@ -5948,7 +5945,7 @@
         <v>48</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>290</v>
@@ -5965,15 +5962,13 @@
       <c r="C216" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D216" s="11" t="s">
-        <v>45</v>
+      <c r="D216" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F216" s="12"/>
     </row>
     <row r="217" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
@@ -5986,7 +5981,7 @@
         <v>48</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>290</v>
@@ -6003,8 +5998,8 @@
       <c r="C218" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D218" s="17" t="s">
-        <v>251</v>
+      <c r="D218" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>290</v>
@@ -6022,7 +6017,7 @@
         <v>48</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="E219" s="10" t="s">
         <v>290</v>
@@ -6040,12 +6035,14 @@
         <v>48</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F220" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="221" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
@@ -6057,8 +6054,8 @@
       <c r="C221" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D221" s="11" t="s">
-        <v>103</v>
+      <c r="D221" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="E221" s="10" t="s">
         <v>290</v>
@@ -6076,123 +6073,123 @@
         <v>48</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F222" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F222" s="12"/>
     </row>
     <row r="223" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>7673</v>
       </c>
       <c r="B223" s="10">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>302</v>
+        <v>120</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F223" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="224" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>7673</v>
       </c>
       <c r="B224" s="10">
+        <v>84</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="10">
+        <v>7802</v>
+      </c>
+      <c r="B225" s="10">
+        <v>49</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="10">
+        <v>7804</v>
+      </c>
+      <c r="B226" s="10">
         <v>50</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C226" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D224" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F224" s="12"/>
-    </row>
-    <row r="225" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A225" s="10">
-        <v>7673</v>
-      </c>
-      <c r="B225" s="10">
-        <v>84</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E225" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F225" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A226" s="10">
-        <v>7673</v>
-      </c>
-      <c r="B226" s="10">
-        <v>84</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E226" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F226" s="10" t="s">
-        <v>47</v>
+      <c r="F226" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
-        <v>7802</v>
+        <v>7354</v>
       </c>
       <c r="B227" s="10">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F227" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F227" s="12"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
-        <v>7804</v>
+        <v>8092</v>
       </c>
       <c r="B228" s="10">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>10</v>
@@ -6203,7 +6200,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
-        <v>7354</v>
+        <v>8094</v>
       </c>
       <c r="B229" s="10">
         <v>9</v>
@@ -6212,56 +6209,56 @@
         <v>154</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="E229" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A230" s="10">
+        <v>8340</v>
+      </c>
+      <c r="B230" s="10">
+        <v>9</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A231" s="10">
+        <v>8348</v>
+      </c>
+      <c r="B231" s="10">
+        <v>9</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E231" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F229" s="12"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="10">
-        <v>8092</v>
-      </c>
-      <c r="B230" s="10">
-        <v>9</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E230" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F230" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="10">
-        <v>8094</v>
-      </c>
-      <c r="B231" s="10">
-        <v>9</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E231" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F231" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="F231" s="12"/>
     </row>
     <row r="232" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
-        <v>8340</v>
+        <v>8348</v>
       </c>
       <c r="B232" s="10">
         <v>9</v>
@@ -6270,14 +6267,12 @@
         <v>154</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F232" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F232" s="12"/>
     </row>
     <row r="233" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
@@ -6290,12 +6285,14 @@
         <v>154</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>378</v>
+        <v>160</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F233" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F233" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="234" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
@@ -6308,7 +6305,7 @@
         <v>154</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E234" s="10" t="s">
         <v>321</v>
@@ -6326,18 +6323,16 @@
         <v>154</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F235" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F235" s="12"/>
     </row>
     <row r="236" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
-        <v>8348</v>
+        <v>8349</v>
       </c>
       <c r="B236" s="10">
         <v>9</v>
@@ -6346,7 +6341,7 @@
         <v>154</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E236" s="10" t="s">
         <v>321</v>
@@ -6355,7 +6350,7 @@
     </row>
     <row r="237" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
-        <v>8348</v>
+        <v>8349</v>
       </c>
       <c r="B237" s="10">
         <v>9</v>
@@ -6364,63 +6359,65 @@
         <v>154</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F237" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="238" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
-        <v>8349</v>
+        <v>8372</v>
       </c>
       <c r="B238" s="10">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F238" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="239" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
-        <v>8349</v>
+        <v>8394</v>
       </c>
       <c r="B239" s="10">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F239" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F239" s="12"/>
     </row>
     <row r="240" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
-        <v>8372</v>
+        <v>8394</v>
       </c>
       <c r="B240" s="10">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="E240" s="10" t="s">
         <v>10</v>
@@ -6429,110 +6426,109 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A241" s="10">
-        <v>8394</v>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="15">
+        <v>8602</v>
       </c>
       <c r="B241" s="10">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D241" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D241" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="15">
+        <v>8602</v>
+      </c>
+      <c r="B242" s="10">
+        <v>27</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D242" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E241" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F241" s="12"/>
-    </row>
-    <row r="242" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A242" s="10">
-        <v>8394</v>
-      </c>
-      <c r="B242" s="10">
-        <v>112</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D242" s="11" t="s">
+      <c r="E242" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A243" s="10">
+        <v>8603</v>
+      </c>
+      <c r="B243" s="10">
+        <v>50</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D243" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E242" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F242" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="15">
-        <v>8602</v>
-      </c>
-      <c r="B243" s="10">
-        <v>27</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D243" s="15" t="s">
+      <c r="E243" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A244" s="10">
+        <v>8604</v>
+      </c>
+      <c r="B244" s="10">
+        <v>77</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D244" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E243" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F243" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="15">
-        <v>8602</v>
-      </c>
-      <c r="B244" s="10">
-        <v>27</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>301</v>
-      </c>
       <c r="E244" s="10" t="s">
-        <v>321</v>
+        <v>10</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
-        <v>8603</v>
+        <v>8611</v>
       </c>
       <c r="B245" s="10">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F245" s="12" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
-        <v>8604</v>
+        <v>8611</v>
       </c>
       <c r="B246" s="10">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D246" s="11" t="s">
         <v>40</v>
@@ -6540,30 +6536,33 @@
       <c r="E246" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F246" s="12" t="s">
+      <c r="F246" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
-        <v>8611</v>
+        <v>8798</v>
       </c>
       <c r="B247" s="10">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
-        <v>8611</v>
+        <v>8799</v>
       </c>
       <c r="B248" s="10">
         <v>89</v>
@@ -6572,7 +6571,7 @@
         <v>125</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="E248" s="10" t="s">
         <v>10</v>
@@ -6581,9 +6580,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="10">
-        <v>8798</v>
+        <v>8803</v>
       </c>
       <c r="B249" s="10">
         <v>41</v>
@@ -6591,68 +6590,66 @@
       <c r="C249" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="D249" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="10">
+        <v>8804</v>
+      </c>
+      <c r="B250" s="10">
+        <v>41</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D250" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E249" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F249" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A250" s="10">
-        <v>8799</v>
-      </c>
-      <c r="B250" s="10">
-        <v>89</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D250" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="E250" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F250" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F250" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
-        <v>8803</v>
+        <v>8349</v>
       </c>
       <c r="B251" s="10">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D251" s="10" t="s">
-        <v>138</v>
+        <v>154</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F251" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F251" s="12"/>
+    </row>
+    <row r="252" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
-        <v>8804</v>
+        <v>8897</v>
       </c>
       <c r="B252" s="10">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>121</v>
+        <v>154</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="E252" s="10" t="s">
         <v>10</v>
@@ -6663,7 +6660,7 @@
     </row>
     <row r="253" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
-        <v>8349</v>
+        <v>8899</v>
       </c>
       <c r="B253" s="10">
         <v>9</v>
@@ -6672,7 +6669,7 @@
         <v>154</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>163</v>
+        <v>376</v>
       </c>
       <c r="E253" s="10" t="s">
         <v>321</v>
@@ -6681,51 +6678,53 @@
     </row>
     <row r="254" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
-        <v>8897</v>
+        <v>9214</v>
       </c>
       <c r="B254" s="10">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E254" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
-        <v>8899</v>
+        <v>9214</v>
       </c>
       <c r="B255" s="10">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F255" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="256" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
-        <v>9214</v>
+        <v>9215</v>
       </c>
       <c r="B256" s="10">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D256" s="11" t="s">
         <v>45</v>
@@ -6739,13 +6738,13 @@
     </row>
     <row r="257" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
-        <v>9214</v>
+        <v>9215</v>
       </c>
       <c r="B257" s="10">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>44</v>
@@ -6757,35 +6756,38 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
-        <v>9215</v>
+        <v>9217</v>
       </c>
       <c r="B258" s="10">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D258" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E258" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F258" s="12" t="s">
-        <v>47</v>
+      <c r="F258" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G258" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
-        <v>9215</v>
+        <v>9217</v>
       </c>
       <c r="B259" s="10">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>44</v>
@@ -6794,64 +6796,61 @@
         <v>10</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="G259" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
-        <v>9217</v>
+        <v>9218</v>
       </c>
       <c r="B260" s="10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D260" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D260" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E260" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F260" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G260" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F260" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
-        <v>9217</v>
+        <v>9218</v>
       </c>
       <c r="B261" s="10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D261" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D261" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E261" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G261" s="10" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A262" s="10">
-        <v>9218</v>
+        <v>9219</v>
       </c>
       <c r="B262" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>45</v>
@@ -6865,13 +6864,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="10">
-        <v>9218</v>
+        <v>9219</v>
       </c>
       <c r="B263" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>44</v>
@@ -6885,16 +6884,16 @@
     </row>
     <row r="264" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
-        <v>9219</v>
+        <v>9220</v>
       </c>
       <c r="B264" s="10">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E264" s="10" t="s">
         <v>10</v>
@@ -6903,18 +6902,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
-        <v>9219</v>
+        <v>9220</v>
       </c>
       <c r="B265" s="10">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>44</v>
+        <v>102</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="E265" s="10" t="s">
         <v>10</v>
@@ -6925,13 +6924,13 @@
     </row>
     <row r="266" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
-        <v>9220</v>
+        <v>9221</v>
       </c>
       <c r="B266" s="10">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>51</v>
@@ -6945,13 +6944,13 @@
     </row>
     <row r="267" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
-        <v>9220</v>
+        <v>9221</v>
       </c>
       <c r="B267" s="10">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>50</v>
@@ -6965,13 +6964,13 @@
     </row>
     <row r="268" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
-        <v>9221</v>
+        <v>9223</v>
       </c>
       <c r="B268" s="10">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="D268" s="11" t="s">
         <v>51</v>
@@ -6980,18 +6979,21 @@
         <v>10</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>47</v>
+        <v>191</v>
+      </c>
+      <c r="G268" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
-        <v>9221</v>
+        <v>9223</v>
       </c>
       <c r="B269" s="10">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="D269" s="11" t="s">
         <v>50</v>
@@ -7000,18 +7002,21 @@
         <v>10</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>47</v>
+        <v>191</v>
+      </c>
+      <c r="G269" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
-        <v>9223</v>
+        <v>9224</v>
       </c>
       <c r="B270" s="10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="D270" s="11" t="s">
         <v>51</v>
@@ -7020,21 +7025,18 @@
         <v>10</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G270" s="10" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
-        <v>9223</v>
+        <v>9224</v>
       </c>
       <c r="B271" s="10">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="D271" s="11" t="s">
         <v>50</v>
@@ -7043,21 +7045,18 @@
         <v>10</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G271" s="10" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
-        <v>9224</v>
+        <v>9225</v>
       </c>
       <c r="B272" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="D272" s="11" t="s">
         <v>51</v>
@@ -7071,13 +7070,13 @@
     </row>
     <row r="273" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A273" s="10">
-        <v>9224</v>
+        <v>9225</v>
       </c>
       <c r="B273" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="D273" s="11" t="s">
         <v>50</v>
@@ -7091,125 +7090,125 @@
     </row>
     <row r="274" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A274" s="10">
-        <v>9225</v>
+        <v>9257</v>
       </c>
       <c r="B274" s="10">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E274" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F274" s="12" t="s">
-        <v>47</v>
+      <c r="F274" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
-        <v>9225</v>
+        <v>9258</v>
       </c>
       <c r="B275" s="10">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E275" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F275" s="12" t="s">
-        <v>47</v>
+      <c r="F275" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A276" s="10">
-        <v>9257</v>
+        <v>8899</v>
       </c>
       <c r="B276" s="10">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="E276" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F276" s="10" t="s">
+      <c r="F276" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A277" s="10">
-        <v>9258</v>
+        <v>9271</v>
       </c>
       <c r="B277" s="10">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E277" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F277" s="10" t="s">
+      <c r="F277" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
-        <v>8899</v>
+        <v>9284</v>
       </c>
       <c r="B278" s="10">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="E278" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="10">
-        <v>9271</v>
+        <v>9284</v>
       </c>
       <c r="B279" s="10">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E279" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="10">
         <v>9284</v>
       </c>
@@ -7219,8 +7218,8 @@
       <c r="C280" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D280" s="11" t="s">
-        <v>86</v>
+      <c r="D280" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E280" s="10" t="s">
         <v>10</v>
@@ -7229,7 +7228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <v>9284</v>
       </c>
@@ -7239,8 +7238,8 @@
       <c r="C281" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D281" s="10" t="s">
-        <v>85</v>
+      <c r="D281" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="E281" s="10" t="s">
         <v>10</v>
@@ -7249,7 +7248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <v>9284</v>
       </c>
@@ -7259,8 +7258,8 @@
       <c r="C282" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D282" s="10" t="s">
-        <v>85</v>
+      <c r="D282" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="E282" s="10" t="s">
         <v>10</v>
@@ -7280,7 +7279,7 @@
         <v>102</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E283" s="10" t="s">
         <v>10</v>
@@ -7300,7 +7299,7 @@
         <v>102</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E284" s="10" t="s">
         <v>10</v>
@@ -7320,7 +7319,7 @@
         <v>102</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E285" s="10" t="s">
         <v>10</v>
@@ -7340,7 +7339,7 @@
         <v>102</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E286" s="10" t="s">
         <v>10</v>
@@ -7360,7 +7359,7 @@
         <v>102</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E287" s="10" t="s">
         <v>10</v>
@@ -7380,7 +7379,7 @@
         <v>102</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E288" s="10" t="s">
         <v>10</v>
@@ -7400,7 +7399,7 @@
         <v>102</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E289" s="10" t="s">
         <v>10</v>
@@ -7420,7 +7419,7 @@
         <v>102</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E290" s="10" t="s">
         <v>10</v>
@@ -7440,7 +7439,7 @@
         <v>102</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E291" s="10" t="s">
         <v>10</v>
@@ -7460,7 +7459,7 @@
         <v>102</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E292" s="10" t="s">
         <v>10</v>
@@ -7480,7 +7479,7 @@
         <v>102</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E293" s="10" t="s">
         <v>10</v>
@@ -7500,7 +7499,7 @@
         <v>102</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E294" s="10" t="s">
         <v>10</v>
@@ -7520,7 +7519,7 @@
         <v>102</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E295" s="10" t="s">
         <v>10</v>
@@ -7529,18 +7528,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="10">
-        <v>9284</v>
+        <v>9289</v>
       </c>
       <c r="B296" s="10">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D296" s="11" t="s">
-        <v>73</v>
+        <v>403</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="E296" s="10" t="s">
         <v>10</v>
@@ -7549,18 +7548,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="10">
-        <v>9284</v>
+        <v>9289</v>
       </c>
       <c r="B297" s="10">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D297" s="11" t="s">
-        <v>71</v>
+        <v>403</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E297" s="10" t="s">
         <v>10</v>
@@ -7580,7 +7579,7 @@
         <v>403</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E298" s="10" t="s">
         <v>10</v>
@@ -7600,7 +7599,7 @@
         <v>403</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E299" s="10" t="s">
         <v>10</v>
@@ -7620,7 +7619,7 @@
         <v>403</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E300" s="10" t="s">
         <v>10</v>
@@ -7629,18 +7628,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
-        <v>9289</v>
+        <v>9292</v>
       </c>
       <c r="B301" s="10">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D301" s="10" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="E301" s="10" t="s">
         <v>10</v>
@@ -7651,16 +7650,16 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="10">
-        <v>9289</v>
+        <v>9292</v>
       </c>
       <c r="B302" s="10">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="E302" s="10" t="s">
         <v>10</v>
@@ -7669,55 +7668,53 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="10">
-        <v>9292</v>
+        <v>9294</v>
       </c>
       <c r="B303" s="10">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D303" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D303" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E303" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="10">
-        <v>9292</v>
+        <v>9294</v>
       </c>
       <c r="B304" s="10">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>308</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F304" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F304" s="12"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10">
-        <v>9294</v>
+        <v>9295</v>
       </c>
       <c r="B305" s="10">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>103</v>
@@ -7726,39 +7723,41 @@
         <v>10</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A306" s="10">
-        <v>9294</v>
+        <v>9316</v>
       </c>
       <c r="B306" s="10">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D306" s="10" t="s">
-        <v>308</v>
+        <v>102</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F306" s="12"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F306" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A307" s="10">
-        <v>9295</v>
+        <v>9317</v>
       </c>
       <c r="B307" s="10">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D307" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E307" s="10" t="s">
         <v>10</v>
@@ -7769,13 +7768,13 @@
     </row>
     <row r="308" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A308" s="10">
-        <v>9316</v>
+        <v>9318</v>
       </c>
       <c r="B308" s="10">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="D308" s="11" t="s">
         <v>52</v>
@@ -7784,18 +7783,21 @@
         <v>10</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>47</v>
+        <v>191</v>
+      </c>
+      <c r="G308" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A309" s="10">
-        <v>9317</v>
+        <v>9319</v>
       </c>
       <c r="B309" s="10">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="D309" s="11" t="s">
         <v>52</v>
@@ -7809,13 +7811,13 @@
     </row>
     <row r="310" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A310" s="10">
-        <v>9318</v>
+        <v>9320</v>
       </c>
       <c r="B310" s="10">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="D310" s="11" t="s">
         <v>52</v>
@@ -7824,70 +7826,67 @@
         <v>10</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G310" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10">
-        <v>9319</v>
+        <v>9375</v>
       </c>
       <c r="B311" s="10">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D311" s="11" t="s">
-        <v>52</v>
+        <v>279</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="E311" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F311" s="12" t="s">
+      <c r="F311" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A312" s="10">
-        <v>9320</v>
+        <v>11914</v>
       </c>
       <c r="B312" s="10">
+        <v>48</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A313" s="10">
+        <v>11914</v>
+      </c>
+      <c r="B313" s="10">
         <v>49</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="C313" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D312" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E312" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F312" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="10">
-        <v>9375</v>
-      </c>
-      <c r="B313" s="10">
-        <v>6</v>
-      </c>
-      <c r="C313" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D313" s="10" t="s">
-        <v>271</v>
+      <c r="D313" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E313" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F313" s="10" t="s">
-        <v>47</v>
+      <c r="F313" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -7895,10 +7894,10 @@
         <v>11914</v>
       </c>
       <c r="B314" s="10">
+        <v>50</v>
+      </c>
+      <c r="C314" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C314" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="D314" s="11" t="s">
         <v>121</v>
@@ -7910,38 +7909,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10">
-        <v>11914</v>
+        <v>12749</v>
       </c>
       <c r="B315" s="10">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D315" s="11" t="s">
-        <v>121</v>
+        <v>148</v>
+      </c>
+      <c r="D315" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="E315" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F315" s="12" t="s">
+      <c r="F315" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A316" s="10">
-        <v>11914</v>
+        <v>9265</v>
       </c>
       <c r="B316" s="10">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E316" s="10" t="s">
         <v>10</v>
@@ -7952,27 +7951,25 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10">
-        <v>12749</v>
+        <v>13610</v>
       </c>
       <c r="B317" s="10">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D317" s="14" t="s">
-        <v>189</v>
+        <v>154</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F317" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="F317" s="12"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10">
-        <v>9265</v>
+        <v>13610</v>
       </c>
       <c r="B318" s="10">
         <v>9</v>
@@ -7980,15 +7977,13 @@
       <c r="C318" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D318" s="11" t="s">
-        <v>163</v>
+      <c r="D318" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F318" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F318" s="12"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10">
@@ -8001,7 +7996,7 @@
         <v>154</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E319" s="10" t="s">
         <v>321</v>
@@ -8019,7 +8014,7 @@
         <v>154</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E320" s="10" t="s">
         <v>321</v>
@@ -8037,7 +8032,7 @@
         <v>154</v>
       </c>
       <c r="D321" s="10" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E321" s="10" t="s">
         <v>321</v>
@@ -8055,7 +8050,7 @@
         <v>154</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E322" s="10" t="s">
         <v>321</v>
@@ -8073,7 +8068,7 @@
         <v>154</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E323" s="10" t="s">
         <v>321</v>
@@ -8091,7 +8086,7 @@
         <v>154</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E324" s="10" t="s">
         <v>321</v>
@@ -8109,14 +8104,14 @@
         <v>154</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E325" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F325" s="12"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" s="10">
         <v>13610</v>
       </c>
@@ -8126,13 +8121,15 @@
       <c r="C326" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D326" s="10" t="s">
-        <v>357</v>
+      <c r="D326" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F326" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F326" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="10">
@@ -8145,7 +8142,7 @@
         <v>154</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E327" s="10" t="s">
         <v>321</v>
@@ -8154,7 +8151,7 @@
     </row>
     <row r="328" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A328" s="10">
-        <v>13610</v>
+        <v>14194</v>
       </c>
       <c r="B328" s="10">
         <v>9</v>
@@ -8163,7 +8160,7 @@
         <v>154</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="E328" s="10" t="s">
         <v>10</v>
@@ -8172,9 +8169,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A329" s="10">
-        <v>13610</v>
+        <v>14194</v>
       </c>
       <c r="B329" s="10">
         <v>9</v>
@@ -8182,95 +8179,95 @@
       <c r="C329" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D329" s="10" t="s">
-        <v>353</v>
+      <c r="D329" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="E329" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F329" s="12"/>
     </row>
-    <row r="330" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="10">
+        <v>14404</v>
+      </c>
+      <c r="B330" s="10">
+        <v>6</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D330" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E330" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="10">
+        <v>14404</v>
+      </c>
+      <c r="B331" s="10">
+        <v>6</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D331" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E331" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A332" s="10">
         <v>14194</v>
       </c>
-      <c r="B330" s="10">
-        <v>9</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E330" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F330" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A331" s="10">
-        <v>14194</v>
-      </c>
-      <c r="B331" s="10">
-        <v>9</v>
-      </c>
-      <c r="C331" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D331" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E331" s="10" t="s">
+      <c r="B332" s="10">
+        <v>9</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E332" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F331" s="12"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="10">
-        <v>14404</v>
-      </c>
-      <c r="B332" s="10">
-        <v>6</v>
-      </c>
-      <c r="C332" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D332" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E332" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F332" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F332" s="12"/>
+    </row>
+    <row r="333" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A333" s="10">
-        <v>14404</v>
+        <v>14498</v>
       </c>
       <c r="B333" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D333" s="10" t="s">
-        <v>92</v>
+        <v>154</v>
+      </c>
+      <c r="D333" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="E333" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F333" s="10" t="s">
-        <v>47</v>
+      <c r="F333" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A334" s="10">
-        <v>14194</v>
+        <v>14498</v>
       </c>
       <c r="B334" s="10">
         <v>9</v>
@@ -8279,51 +8276,53 @@
         <v>154</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F334" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F334" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="335" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A335" s="10">
-        <v>14498</v>
+        <v>14826</v>
       </c>
       <c r="B335" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="E335" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F335" s="12" t="s">
-        <v>12</v>
+      <c r="F335" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A336" s="10">
-        <v>14498</v>
+        <v>14826</v>
       </c>
       <c r="B336" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="E336" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F336" s="12" t="s">
-        <v>12</v>
+      <c r="F336" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -8337,7 +8336,7 @@
         <v>279</v>
       </c>
       <c r="D337" s="11" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="E337" s="10" t="s">
         <v>10</v>
@@ -8357,7 +8356,7 @@
         <v>279</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="E338" s="10" t="s">
         <v>10</v>
@@ -8377,7 +8376,7 @@
         <v>279</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E339" s="10" t="s">
         <v>10</v>
@@ -8397,7 +8396,7 @@
         <v>279</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="E340" s="10" t="s">
         <v>10</v>
@@ -8417,7 +8416,7 @@
         <v>279</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="E341" s="10" t="s">
         <v>10</v>
@@ -8428,47 +8427,45 @@
     </row>
     <row r="342" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A342" s="10">
-        <v>14826</v>
+        <v>14538</v>
       </c>
       <c r="B342" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E342" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F342" s="10" t="s">
-        <v>47</v>
+      <c r="F342" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A343" s="10">
-        <v>14826</v>
+        <v>14828</v>
       </c>
       <c r="B343" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="D343" s="11" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="E343" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F343" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F343" s="12"/>
     </row>
     <row r="344" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
-        <v>14538</v>
+        <v>14828</v>
       </c>
       <c r="B344" s="10">
         <v>9</v>
@@ -8477,16 +8474,14 @@
         <v>154</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F344" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="F344" s="12"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="10">
         <v>14828</v>
       </c>
@@ -8496,8 +8491,8 @@
       <c r="C345" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D345" s="11" t="s">
-        <v>325</v>
+      <c r="D345" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="E345" s="10" t="s">
         <v>321</v>
@@ -8515,14 +8510,14 @@
         <v>154</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="E346" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F346" s="12"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A347" s="10">
         <v>14828</v>
       </c>
@@ -8532,8 +8527,8 @@
       <c r="C347" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D347" s="10" t="s">
-        <v>274</v>
+      <c r="D347" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="E347" s="10" t="s">
         <v>321</v>
@@ -8551,12 +8546,14 @@
         <v>154</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F348" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F348" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="349" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A349" s="10">
@@ -8569,7 +8566,7 @@
         <v>154</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="E349" s="10" t="s">
         <v>321</v>
@@ -8578,16 +8575,16 @@
     </row>
     <row r="350" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A350" s="10">
-        <v>14828</v>
+        <v>14982</v>
       </c>
       <c r="B350" s="10">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="E350" s="10" t="s">
         <v>10</v>
@@ -8598,25 +8595,27 @@
     </row>
     <row r="351" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A351" s="10">
-        <v>14828</v>
+        <v>15021</v>
       </c>
       <c r="B351" s="10">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F351" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F351" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="352" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A352" s="10">
-        <v>14982</v>
+        <v>15021</v>
       </c>
       <c r="B352" s="10">
         <v>49</v>
@@ -8625,7 +8624,7 @@
         <v>283</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="E352" s="10" t="s">
         <v>10</v>
@@ -8639,10 +8638,10 @@
         <v>15021</v>
       </c>
       <c r="B353" s="10">
+        <v>50</v>
+      </c>
+      <c r="C353" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C353" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>138</v>
@@ -8659,10 +8658,10 @@
         <v>15021</v>
       </c>
       <c r="B354" s="10">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>138</v>
@@ -8679,10 +8678,10 @@
         <v>15021</v>
       </c>
       <c r="B355" s="10">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D355" s="11" t="s">
         <v>138</v>
@@ -8690,77 +8689,77 @@
       <c r="E355" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F355" s="12" t="s">
+      <c r="F355" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A356" s="10">
-        <v>15021</v>
+        <v>14828</v>
       </c>
       <c r="B356" s="10">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>138</v>
+        <v>374</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F356" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F356" s="12"/>
     </row>
     <row r="357" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A357" s="10">
-        <v>15021</v>
+        <v>15129</v>
       </c>
       <c r="B357" s="10">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E357" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F357" s="10" t="s">
+      <c r="F357" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A358" s="10">
-        <v>14828</v>
+        <v>15129</v>
       </c>
       <c r="B358" s="10">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>374</v>
+        <v>121</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F358" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F358" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="359" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A359" s="10">
         <v>15129</v>
       </c>
       <c r="B359" s="10">
+        <v>50</v>
+      </c>
+      <c r="C359" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C359" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="D359" s="11" t="s">
         <v>121</v>
@@ -8772,18 +8771,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="10">
-        <v>15129</v>
+        <v>15135</v>
       </c>
       <c r="B360" s="10">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D360" s="11" t="s">
-        <v>121</v>
+        <v>258</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="E360" s="10" t="s">
         <v>10</v>
@@ -8794,16 +8793,16 @@
     </row>
     <row r="361" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A361" s="10">
-        <v>15129</v>
+        <v>15135</v>
       </c>
       <c r="B361" s="10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E361" s="10" t="s">
         <v>10</v>
@@ -8812,17 +8811,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A362" s="10">
         <v>15135</v>
       </c>
       <c r="B362" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D362" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D362" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E362" s="10" t="s">
@@ -8837,10 +8836,10 @@
         <v>15135</v>
       </c>
       <c r="B363" s="10">
+        <v>50</v>
+      </c>
+      <c r="C363" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C363" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="D363" s="11" t="s">
         <v>123</v>
@@ -8857,10 +8856,10 @@
         <v>15135</v>
       </c>
       <c r="B364" s="10">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D364" s="11" t="s">
         <v>123</v>
@@ -8874,42 +8873,39 @@
     </row>
     <row r="365" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A365" s="10">
-        <v>15135</v>
+        <v>15510</v>
       </c>
       <c r="B365" s="10">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="E365" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F365" s="12" t="s">
+      <c r="F365" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A366" s="10">
-        <v>15135</v>
+        <v>15510</v>
       </c>
       <c r="B366" s="10">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F366" s="12" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -8923,18 +8919,15 @@
         <v>279</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F367" s="10" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A368" s="10">
-        <v>15510</v>
+        <v>15767</v>
       </c>
       <c r="B368" s="10">
         <v>6</v>
@@ -8943,7 +8936,7 @@
         <v>279</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="E368" s="10" t="s">
         <v>321</v>
@@ -8951,7 +8944,7 @@
     </row>
     <row r="369" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A369" s="10">
-        <v>15510</v>
+        <v>15767</v>
       </c>
       <c r="B369" s="10">
         <v>6</v>
@@ -8960,7 +8953,7 @@
         <v>279</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>183</v>
+        <v>328</v>
       </c>
       <c r="E369" s="10" t="s">
         <v>321</v>
@@ -8977,10 +8970,13 @@
         <v>279</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>321</v>
+        <v>10</v>
+      </c>
+      <c r="F370" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -8994,7 +8990,7 @@
         <v>279</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E371" s="10" t="s">
         <v>321</v>
@@ -9011,18 +9007,15 @@
         <v>279</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F372" s="10" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A373" s="10">
-        <v>15767</v>
+        <v>15986</v>
       </c>
       <c r="B373" s="10">
         <v>6</v>
@@ -9031,101 +9024,107 @@
         <v>279</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>321</v>
+        <v>10</v>
+      </c>
+      <c r="F373" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A374" s="10">
-        <v>15767</v>
+        <v>16203</v>
       </c>
       <c r="B374" s="10">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>279</v>
+        <v>106</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>321</v>
+        <v>10</v>
+      </c>
+      <c r="F374" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A375" s="10">
-        <v>15986</v>
+        <v>16203</v>
       </c>
       <c r="B375" s="10">
+        <v>77</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D375" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E375" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F375" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="10">
+        <v>16241</v>
+      </c>
+      <c r="B376" s="10">
         <v>6</v>
       </c>
-      <c r="C375" s="10" t="s">
+      <c r="C376" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D375" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E375" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F375" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A376" s="10">
-        <v>16203</v>
-      </c>
-      <c r="B376" s="10">
-        <v>77</v>
-      </c>
-      <c r="C376" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D376" s="11" t="s">
-        <v>103</v>
+      <c r="D376" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="E376" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F376" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F376" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="10">
-        <v>16203</v>
+        <v>16241</v>
       </c>
       <c r="B377" s="10">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D377" s="11" t="s">
-        <v>308</v>
+        <v>279</v>
+      </c>
+      <c r="D377" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="E377" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F377" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F377" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A378" s="10">
-        <v>16241</v>
+        <v>17008</v>
       </c>
       <c r="B378" s="10">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D378" s="10" t="s">
-        <v>277</v>
+        <v>137</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="E378" s="10" t="s">
         <v>10</v>
@@ -9134,75 +9133,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A379" s="10">
-        <v>16241</v>
+        <v>17749</v>
       </c>
       <c r="B379" s="10">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D379" s="10" t="s">
-        <v>278</v>
+        <v>235</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="E379" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F379" s="10" t="s">
+      <c r="F379" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A380" s="10">
-        <v>17008</v>
+        <v>17781</v>
       </c>
       <c r="B380" s="10">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E380" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F380" s="10" t="s">
+      <c r="F380" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A381" s="10">
-        <v>17749</v>
+        <v>17785</v>
       </c>
       <c r="B381" s="10">
-        <v>60</v>
-      </c>
-      <c r="C381" s="10" t="s">
-        <v>235</v>
+        <v>144</v>
+      </c>
+      <c r="C381" t="s">
+        <v>404</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="E381" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F381" s="12" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A382" s="10">
-        <v>17781</v>
+        <v>17785</v>
       </c>
       <c r="B382" s="10">
-        <v>135</v>
-      </c>
-      <c r="C382" s="10" t="s">
-        <v>101</v>
+        <v>144</v>
+      </c>
+      <c r="C382" t="s">
+        <v>404</v>
       </c>
       <c r="D382" s="11" t="s">
         <v>99</v>
@@ -9210,7 +9206,7 @@
       <c r="E382" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F382" s="12" t="s">
+      <c r="F382" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9225,7 +9221,7 @@
         <v>404</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="E383" s="10" t="s">
         <v>290</v>
@@ -9233,64 +9229,67 @@
     </row>
     <row r="384" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A384" s="10">
-        <v>17785</v>
+        <v>15102</v>
       </c>
       <c r="B384" s="10">
-        <v>144</v>
-      </c>
-      <c r="C384" t="s">
-        <v>404</v>
+        <v>9</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E384" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F384" s="10" t="s">
+      <c r="F384" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A385" s="10">
-        <v>17785</v>
+        <v>18101</v>
       </c>
       <c r="B385" s="10">
-        <v>144</v>
-      </c>
-      <c r="C385" t="s">
-        <v>404</v>
+        <v>9</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>306</v>
+        <v>163</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="F385" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A386" s="10">
-        <v>15102</v>
+      <c r="A386" s="12">
+        <v>19641</v>
       </c>
       <c r="B386" s="10">
         <v>9</v>
       </c>
       <c r="C386" s="10" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="E386" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F386" s="12" t="s">
+      <c r="F386" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A387" s="10">
-        <v>18101</v>
+        <v>19762</v>
       </c>
       <c r="B387" s="10">
         <v>9</v>
@@ -9299,7 +9298,7 @@
         <v>154</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E387" s="10" t="s">
         <v>10</v>
@@ -9309,28 +9308,28 @@
       </c>
     </row>
     <row r="388" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A388" s="12">
-        <v>19641</v>
+      <c r="A388" s="10">
+        <v>20001</v>
       </c>
       <c r="B388" s="10">
         <v>9</v>
       </c>
       <c r="C388" s="10" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E388" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F388" s="10" t="s">
+      <c r="F388" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A389" s="10">
-        <v>19762</v>
+        <v>21157</v>
       </c>
       <c r="B389" s="10">
         <v>9</v>
@@ -9339,18 +9338,18 @@
         <v>154</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E389" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F389" s="12" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A390" s="10">
-        <v>20001</v>
+        <v>21897</v>
       </c>
       <c r="B390" s="10">
         <v>9</v>
@@ -9359,18 +9358,16 @@
         <v>154</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="E390" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F390" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F390" s="12"/>
     </row>
     <row r="391" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A391" s="10">
-        <v>21157</v>
+        <v>21897</v>
       </c>
       <c r="B391" s="10">
         <v>9</v>
@@ -9379,7 +9376,7 @@
         <v>154</v>
       </c>
       <c r="D391" s="11" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="E391" s="10" t="s">
         <v>10</v>
@@ -9399,16 +9396,18 @@
         <v>154</v>
       </c>
       <c r="D392" s="11" t="s">
-        <v>371</v>
+        <v>168</v>
       </c>
       <c r="E392" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F392" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F392" s="12" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="393" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A393" s="10">
-        <v>21897</v>
+        <v>21915</v>
       </c>
       <c r="B393" s="10">
         <v>9</v>
@@ -9417,18 +9416,16 @@
         <v>154</v>
       </c>
       <c r="D393" s="11" t="s">
-        <v>93</v>
+        <v>334</v>
       </c>
       <c r="E393" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F393" s="12" t="s">
-        <v>191</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F393" s="12"/>
     </row>
     <row r="394" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A394" s="10">
-        <v>21897</v>
+        <v>21915</v>
       </c>
       <c r="B394" s="10">
         <v>9</v>
@@ -9437,14 +9434,12 @@
         <v>154</v>
       </c>
       <c r="D394" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E394" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F394" s="12" t="s">
-        <v>191</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F394" s="12"/>
     </row>
     <row r="395" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A395" s="10">
@@ -9457,12 +9452,14 @@
         <v>154</v>
       </c>
       <c r="D395" s="11" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="E395" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F395" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F395" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="396" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A396" s="10">
@@ -9475,7 +9472,7 @@
         <v>154</v>
       </c>
       <c r="D396" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E396" s="10" t="s">
         <v>321</v>
@@ -9493,14 +9490,12 @@
         <v>154</v>
       </c>
       <c r="D397" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E397" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F397" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F397" s="12"/>
     </row>
     <row r="398" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A398" s="10">
@@ -9513,16 +9508,18 @@
         <v>154</v>
       </c>
       <c r="D398" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E398" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F398" s="12"/>
-    </row>
-    <row r="399" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F398" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="10">
-        <v>21915</v>
+        <v>21916</v>
       </c>
       <c r="B399" s="10">
         <v>9</v>
@@ -9530,17 +9527,17 @@
       <c r="C399" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D399" s="11" t="s">
-        <v>172</v>
+      <c r="D399" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="E399" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F399" s="12"/>
     </row>
-    <row r="400" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="10">
-        <v>21915</v>
+        <v>21916</v>
       </c>
       <c r="B400" s="10">
         <v>9</v>
@@ -9548,159 +9545,159 @@
       <c r="C400" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D400" s="11" t="s">
-        <v>173</v>
+      <c r="D400" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="E400" s="10" t="s">
-        <v>321</v>
+        <v>10</v>
       </c>
       <c r="F400" s="12" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="10">
-        <v>21916</v>
+        <v>21924</v>
       </c>
       <c r="B401" s="10">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="D401" s="10" t="s">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="E401" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F401" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F401" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="10">
-        <v>21916</v>
+        <v>21924</v>
       </c>
       <c r="B402" s="10">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="D402" s="10" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="E402" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F402" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F402" s="12"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="10">
-        <v>21924</v>
+        <v>21916</v>
       </c>
       <c r="B403" s="10">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="D403" s="10" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="E403" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F403" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F403" s="12"/>
+    </row>
+    <row r="404" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A404" s="10">
-        <v>21924</v>
+        <v>21952</v>
       </c>
       <c r="B404" s="10">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D404" s="10" t="s">
-        <v>42</v>
+        <v>279</v>
+      </c>
+      <c r="D404" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="E404" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F404" s="12"/>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A405" s="10">
-        <v>21916</v>
+        <v>21952</v>
       </c>
       <c r="B405" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D405" s="10" t="s">
-        <v>333</v>
+        <v>279</v>
+      </c>
+      <c r="D405" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E405" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F405" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F405" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="406" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A406" s="10">
-        <v>21952</v>
+        <v>23110</v>
       </c>
       <c r="B406" s="10">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="D406" s="11" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="E406" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F406" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" s="10">
+        <v>21916</v>
+      </c>
+      <c r="B407" s="10">
+        <v>9</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D407" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E407" s="10" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A407" s="10">
-        <v>21952</v>
-      </c>
-      <c r="B407" s="10">
-        <v>6</v>
-      </c>
-      <c r="C407" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D407" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E407" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F407" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F407" s="12"/>
+    </row>
+    <row r="408" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="10">
-        <v>23110</v>
+        <v>21948</v>
       </c>
       <c r="B408" s="10">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D408" s="11" t="s">
-        <v>251</v>
+        <v>154</v>
+      </c>
+      <c r="D408" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="E408" s="10" t="s">
         <v>10</v>
@@ -9708,10 +9705,14 @@
       <c r="F408" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G408" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H408" s="10"/>
+    </row>
+    <row r="409" spans="1:8" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A409" s="10">
-        <v>21916</v>
+        <v>24341</v>
       </c>
       <c r="B409" s="10">
         <v>9</v>
@@ -9719,17 +9720,19 @@
       <c r="C409" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D409" s="10" t="s">
-        <v>332</v>
+      <c r="D409" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="E409" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F409" s="12"/>
-    </row>
-    <row r="410" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G409" s="10"/>
+      <c r="H409" s="10"/>
+    </row>
+    <row r="410" spans="1:8" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A410" s="10">
-        <v>21948</v>
+        <v>24341</v>
       </c>
       <c r="B410" s="10">
         <v>9</v>
@@ -9737,8 +9740,8 @@
       <c r="C410" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D410" s="10" t="s">
-        <v>390</v>
+      <c r="D410" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="E410" s="10" t="s">
         <v>10</v>
@@ -9746,12 +9749,10 @@
       <c r="F410" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G410" s="10" t="s">
-        <v>391</v>
-      </c>
+      <c r="G410" s="10"/>
       <c r="H410" s="10"/>
     </row>
-    <row r="411" spans="1:8" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A411" s="10">
         <v>24341</v>
       </c>
@@ -9762,16 +9763,14 @@
         <v>154</v>
       </c>
       <c r="D411" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E411" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F411" s="12"/>
-      <c r="G411" s="10"/>
-      <c r="H411" s="10"/>
-    </row>
-    <row r="412" spans="1:8" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A412" s="10">
         <v>24341</v>
       </c>
@@ -9782,16 +9781,12 @@
         <v>154</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="E412" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F412" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G412" s="10"/>
-      <c r="H412" s="10"/>
+        <v>321</v>
+      </c>
+      <c r="F412" s="12"/>
     </row>
     <row r="413" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A413" s="10">
@@ -9804,7 +9799,7 @@
         <v>154</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E413" s="10" t="s">
         <v>321</v>
@@ -9822,7 +9817,7 @@
         <v>154</v>
       </c>
       <c r="D414" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E414" s="10" t="s">
         <v>321</v>
@@ -9840,7 +9835,7 @@
         <v>154</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E415" s="10" t="s">
         <v>321</v>
@@ -9858,7 +9853,7 @@
         <v>154</v>
       </c>
       <c r="D416" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E416" s="10" t="s">
         <v>321</v>
@@ -9876,7 +9871,7 @@
         <v>154</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E417" s="10" t="s">
         <v>321</v>
@@ -9894,16 +9889,18 @@
         <v>154</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>336</v>
+        <v>176</v>
       </c>
       <c r="E418" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F418" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F418" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="419" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A419" s="10">
-        <v>24341</v>
+        <v>24351</v>
       </c>
       <c r="B419" s="10">
         <v>9</v>
@@ -9912,16 +9909,18 @@
         <v>154</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="E419" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F419" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F419" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="420" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A420" s="10">
-        <v>24341</v>
+        <v>24353</v>
       </c>
       <c r="B420" s="10">
         <v>9</v>
@@ -9930,7 +9929,7 @@
         <v>154</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E420" s="10" t="s">
         <v>10</v>
@@ -9941,7 +9940,7 @@
     </row>
     <row r="421" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A421" s="10">
-        <v>24351</v>
+        <v>24353</v>
       </c>
       <c r="B421" s="10">
         <v>9</v>
@@ -9950,7 +9949,7 @@
         <v>154</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E421" s="10" t="s">
         <v>10</v>
@@ -9961,7 +9960,7 @@
     </row>
     <row r="422" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A422" s="10">
-        <v>24353</v>
+        <v>24357</v>
       </c>
       <c r="B422" s="10">
         <v>9</v>
@@ -9970,18 +9969,16 @@
         <v>154</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="E422" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F422" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F422" s="12"/>
     </row>
     <row r="423" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A423" s="10">
-        <v>24353</v>
+        <v>24357</v>
       </c>
       <c r="B423" s="10">
         <v>9</v>
@@ -9990,14 +9987,12 @@
         <v>154</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="E423" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F423" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F423" s="12"/>
     </row>
     <row r="424" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A424" s="10">
@@ -10010,7 +10005,7 @@
         <v>154</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E424" s="10" t="s">
         <v>321</v>
@@ -10028,16 +10023,18 @@
         <v>154</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>352</v>
+        <v>179</v>
       </c>
       <c r="E425" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F425" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F425" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="426" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A426" s="10">
-        <v>24357</v>
+        <v>24358</v>
       </c>
       <c r="B426" s="10">
         <v>9</v>
@@ -10046,7 +10043,7 @@
         <v>154</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E426" s="10" t="s">
         <v>321</v>
@@ -10055,7 +10052,7 @@
     </row>
     <row r="427" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A427" s="10">
-        <v>24357</v>
+        <v>24358</v>
       </c>
       <c r="B427" s="10">
         <v>9</v>
@@ -10064,14 +10061,12 @@
         <v>154</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="E427" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F427" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F427" s="12"/>
     </row>
     <row r="428" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A428" s="10">
@@ -10084,7 +10079,7 @@
         <v>154</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E428" s="10" t="s">
         <v>321</v>
@@ -10102,7 +10097,7 @@
         <v>154</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E429" s="10" t="s">
         <v>321</v>
@@ -10120,12 +10115,14 @@
         <v>154</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>348</v>
+        <v>180</v>
       </c>
       <c r="E430" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F430" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F430" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="431" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A431" s="10">
@@ -10138,7 +10135,7 @@
         <v>154</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E431" s="10" t="s">
         <v>321</v>
@@ -10147,7 +10144,7 @@
     </row>
     <row r="432" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A432" s="10">
-        <v>24358</v>
+        <v>24359</v>
       </c>
       <c r="B432" s="10">
         <v>9</v>
@@ -10156,18 +10153,16 @@
         <v>154</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="E432" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F432" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F432" s="12"/>
     </row>
     <row r="433" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A433" s="10">
-        <v>24358</v>
+        <v>24359</v>
       </c>
       <c r="B433" s="10">
         <v>9</v>
@@ -10176,54 +10171,58 @@
         <v>154</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="E433" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F433" s="12"/>
-    </row>
-    <row r="434" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F433" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="10">
-        <v>24359</v>
+        <v>24383</v>
       </c>
       <c r="B434" s="10">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D434" s="11" t="s">
-        <v>344</v>
+        <v>258</v>
+      </c>
+      <c r="D434" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E434" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F434" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F434" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="435" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A435" s="10">
-        <v>24359</v>
+        <v>24384</v>
       </c>
       <c r="B435" s="10">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="E435" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F435" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F435" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A436" s="10">
-        <v>24383</v>
+        <v>24387</v>
       </c>
       <c r="B436" s="10">
         <v>41</v>
@@ -10231,8 +10230,8 @@
       <c r="C436" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D436" s="10" t="s">
-        <v>122</v>
+      <c r="D436" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E436" s="10" t="s">
         <v>10</v>
@@ -10241,29 +10240,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="10">
-        <v>24384</v>
+        <v>24387</v>
       </c>
       <c r="B437" s="10">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>122</v>
+        <v>258</v>
+      </c>
+      <c r="D437" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="E437" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F437" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F437" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="10">
-        <v>24387</v>
+        <v>24388</v>
       </c>
       <c r="B438" s="10">
         <v>41</v>
@@ -10271,8 +10270,8 @@
       <c r="C438" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D438" s="11" t="s">
-        <v>151</v>
+      <c r="D438" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E438" s="10" t="s">
         <v>10</v>
@@ -10283,7 +10282,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="10">
-        <v>24387</v>
+        <v>24388</v>
       </c>
       <c r="B439" s="10">
         <v>41</v>
@@ -10291,72 +10290,69 @@
       <c r="C439" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D439" s="10" t="s">
-        <v>257</v>
+      <c r="D439" s="10">
+        <v>99</v>
       </c>
       <c r="E439" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F439" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F439" s="12"/>
+    </row>
+    <row r="440" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A440" s="10">
-        <v>24388</v>
+        <v>24389</v>
       </c>
       <c r="B440" s="10">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D440" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D440" s="11" t="s">
         <v>122</v>
       </c>
       <c r="E440" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F440" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F440" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A441" s="10">
-        <v>24388</v>
+        <v>24390</v>
       </c>
       <c r="B441" s="10">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D441" s="10">
-        <v>99</v>
+        <v>152</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E441" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F441" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F441" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="442" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A442" s="10">
-        <v>24389</v>
+        <v>24390</v>
       </c>
       <c r="B442" s="10">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="E442" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F442" s="10" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -10369,82 +10365,85 @@
       <c r="C443" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D443" s="11" t="s">
-        <v>151</v>
+      <c r="D443" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="E443" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F443" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="10">
-        <v>24390</v>
+        <v>24460</v>
       </c>
       <c r="B444" s="10">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D444" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="D444" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E444" s="10" t="s">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="F444" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A445" s="10">
-        <v>24390</v>
+        <v>24461</v>
       </c>
       <c r="B445" s="10">
+        <v>102</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D445" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E445" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F445" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A446" s="10">
+        <v>24473</v>
+      </c>
+      <c r="B446" s="10">
+        <v>89</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D446" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C445" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D445" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E445" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="10">
-        <v>24460</v>
-      </c>
-      <c r="B446" s="10">
-        <v>41</v>
-      </c>
-      <c r="C446" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D446" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="E446" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F446" s="12" t="s">
+      <c r="F446" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A447" s="10">
-        <v>24461</v>
+        <v>24474</v>
       </c>
       <c r="B447" s="10">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E447" s="10" t="s">
         <v>10</v>
@@ -10455,7 +10454,7 @@
     </row>
     <row r="448" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A448" s="10">
-        <v>24473</v>
+        <v>24476</v>
       </c>
       <c r="B448" s="10">
         <v>89</v>
@@ -10464,7 +10463,7 @@
         <v>125</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E448" s="10" t="s">
         <v>10</v>
@@ -10473,47 +10472,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A449" s="10">
-        <v>24474</v>
+        <v>24359</v>
       </c>
       <c r="B449" s="10">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D449" s="11" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="E449" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F449" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="F449" s="12"/>
+    </row>
+    <row r="450" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A450" s="10">
-        <v>24476</v>
+        <v>24359</v>
       </c>
       <c r="B450" s="10">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>123</v>
+        <v>343</v>
       </c>
       <c r="E450" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F450" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="F450" s="12"/>
+    </row>
+    <row r="451" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A451" s="10">
         <v>24359</v>
       </c>
@@ -10524,16 +10519,16 @@
         <v>154</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E451" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F451" s="12"/>
     </row>
-    <row r="452" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A452" s="10">
-        <v>24359</v>
+        <v>24480</v>
       </c>
       <c r="B452" s="10">
         <v>9</v>
@@ -10542,16 +10537,18 @@
         <v>154</v>
       </c>
       <c r="D452" s="11" t="s">
-        <v>343</v>
+        <v>182</v>
       </c>
       <c r="E452" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F452" s="12"/>
-    </row>
-    <row r="453" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F452" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10">
-        <v>24359</v>
+        <v>24490</v>
       </c>
       <c r="B453" s="10">
         <v>9</v>
@@ -10559,17 +10556,17 @@
       <c r="C453" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D453" s="11" t="s">
-        <v>342</v>
+      <c r="D453" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="E453" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F453" s="12"/>
     </row>
-    <row r="454" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10">
-        <v>24480</v>
+        <v>24490</v>
       </c>
       <c r="B454" s="10">
         <v>9</v>
@@ -10577,17 +10574,15 @@
       <c r="C454" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D454" s="11" t="s">
-        <v>182</v>
+      <c r="D454" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="E454" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F454" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F454" s="12"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10">
         <v>24490</v>
       </c>
@@ -10598,14 +10593,14 @@
         <v>154</v>
       </c>
       <c r="D455" s="10" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="E455" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F455" s="12"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A456" s="10">
         <v>24490</v>
       </c>
@@ -10615,15 +10610,17 @@
       <c r="C456" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D456" s="10" t="s">
-        <v>375</v>
+      <c r="D456" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="E456" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F456" s="12"/>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F456" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10">
         <v>24490</v>
       </c>
@@ -10634,25 +10631,25 @@
         <v>154</v>
       </c>
       <c r="D457" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E457" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F457" s="12"/>
     </row>
-    <row r="458" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10">
-        <v>24490</v>
+        <v>24493</v>
       </c>
       <c r="B458" s="10">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D458" s="11" t="s">
-        <v>183</v>
+        <v>258</v>
+      </c>
+      <c r="D458" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="E458" s="10" t="s">
         <v>10</v>
@@ -10661,27 +10658,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A459" s="10">
-        <v>24490</v>
+        <v>24494</v>
       </c>
       <c r="B459" s="10">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D459" s="10" t="s">
-        <v>322</v>
+        <v>125</v>
+      </c>
+      <c r="D459" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E459" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F459" s="12"/>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F459" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A460" s="10">
-        <v>24493</v>
+        <v>24496</v>
       </c>
       <c r="B460" s="10">
         <v>41</v>
@@ -10689,7 +10688,7 @@
       <c r="C460" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D460" s="10" t="s">
+      <c r="D460" s="11" t="s">
         <v>115</v>
       </c>
       <c r="E460" s="10" t="s">
@@ -10699,29 +10698,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10">
-        <v>24494</v>
+        <v>24497</v>
       </c>
       <c r="B461" s="10">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D461" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D461" s="14" t="s">
         <v>115</v>
       </c>
       <c r="E461" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F461" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F461" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A462" s="10">
-        <v>24496</v>
+        <v>24498</v>
       </c>
       <c r="B462" s="10">
         <v>41</v>
@@ -10739,69 +10738,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="10">
-        <v>24497</v>
-      </c>
-      <c r="B463" s="10">
-        <v>66</v>
-      </c>
-      <c r="C463" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D463" s="14" t="s">
+    <row r="463" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A463" s="15">
+        <v>24498</v>
+      </c>
+      <c r="B463" s="15">
+        <v>80</v>
+      </c>
+      <c r="C463" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D463" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E463" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F463" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E463" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F463" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G463" s="15"/>
+      <c r="H463" s="15"/>
+    </row>
+    <row r="464" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A464" s="10">
-        <v>24498</v>
+        <v>24509</v>
       </c>
       <c r="B464" s="10">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>115</v>
+        <v>311</v>
       </c>
       <c r="E464" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F464" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A465" s="15">
-        <v>24498</v>
-      </c>
-      <c r="B465" s="15">
-        <v>80</v>
-      </c>
-      <c r="C465" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D465" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E465" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F465" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G465" s="15"/>
-      <c r="H465" s="15"/>
-    </row>
-    <row r="466" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A465" s="10">
+        <v>24509</v>
+      </c>
+      <c r="B465" s="10">
+        <v>89</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D465" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E465" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A466" s="10">
         <v>24509</v>
       </c>
@@ -10812,13 +10805,13 @@
         <v>125</v>
       </c>
       <c r="D466" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E466" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A467" s="10">
         <v>24509</v>
       </c>
@@ -10829,13 +10822,13 @@
         <v>125</v>
       </c>
       <c r="D467" s="11" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="E467" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A468" s="10">
         <v>24509</v>
       </c>
@@ -10846,13 +10839,16 @@
         <v>125</v>
       </c>
       <c r="D468" s="11" t="s">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="E468" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F468" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A469" s="10">
         <v>24509</v>
       </c>
@@ -10863,70 +10859,71 @@
         <v>125</v>
       </c>
       <c r="D469" s="11" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E469" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A470" s="10">
-        <v>24509</v>
+        <v>24490</v>
       </c>
       <c r="B470" s="10">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="E470" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F470" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F470" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="10">
-        <v>24509</v>
+        <v>24514</v>
       </c>
       <c r="B471" s="10">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D471" s="11" t="s">
-        <v>314</v>
+        <v>237</v>
+      </c>
+      <c r="D471" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E471" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F471" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="10">
-        <v>24490</v>
+        <v>24514</v>
       </c>
       <c r="B472" s="10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D472" s="11" t="s">
-        <v>184</v>
+        <v>237</v>
+      </c>
+      <c r="D472" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E472" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F472" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F472" s="12"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="10">
         <v>24514</v>
       </c>
@@ -10937,60 +10934,62 @@
         <v>237</v>
       </c>
       <c r="D473" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E473" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F473" s="12"/>
+    </row>
+    <row r="474" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A474" s="10">
+        <v>24515</v>
+      </c>
+      <c r="B474" s="10">
+        <v>46</v>
+      </c>
+      <c r="C474" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D474" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E474" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F474" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A475" s="10">
+        <v>24515</v>
+      </c>
+      <c r="B475" s="10">
+        <v>46</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D475" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E473" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F473" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A474" s="10">
-        <v>24514</v>
-      </c>
-      <c r="B474" s="10">
-        <v>27</v>
-      </c>
-      <c r="C474" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D474" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E474" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F474" s="12"/>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A475" s="10">
-        <v>24514</v>
-      </c>
-      <c r="B475" s="10">
-        <v>27</v>
-      </c>
-      <c r="C475" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D475" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="E475" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F475" s="12"/>
-    </row>
-    <row r="476" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F475" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A476" s="10">
-        <v>24515</v>
+        <v>24516</v>
       </c>
       <c r="B476" s="10">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="D476" s="11" t="s">
         <v>45</v>
@@ -10998,19 +10997,19 @@
       <c r="E476" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F476" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F476" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A477" s="10">
-        <v>24515</v>
+        <v>24516</v>
       </c>
       <c r="B477" s="10">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="D477" s="11" t="s">
         <v>44</v>
@@ -11018,53 +11017,51 @@
       <c r="E477" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F477" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F477" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="10">
-        <v>24516</v>
+        <v>24526</v>
       </c>
       <c r="B478" s="10">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D478" s="11" t="s">
-        <v>45</v>
+        <v>258</v>
+      </c>
+      <c r="D478" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E478" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F478" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F478" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="10">
-        <v>24516</v>
+        <v>24526</v>
       </c>
       <c r="B479" s="10">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D479" s="11" t="s">
-        <v>44</v>
+        <v>258</v>
+      </c>
+      <c r="D479" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="E479" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F479" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F479" s="12"/>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="10">
-        <v>24526</v>
+        <v>24540</v>
       </c>
       <c r="B480" s="10">
         <v>41</v>
@@ -11073,7 +11070,7 @@
         <v>258</v>
       </c>
       <c r="D480" s="10" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="E480" s="10" t="s">
         <v>10</v>
@@ -11084,7 +11081,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="10">
-        <v>24526</v>
+        <v>24540</v>
       </c>
       <c r="B481" s="10">
         <v>41</v>
@@ -11093,7 +11090,7 @@
         <v>258</v>
       </c>
       <c r="D481" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E481" s="10" t="s">
         <v>321</v>
@@ -11102,90 +11099,94 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="10">
-        <v>24540</v>
+        <v>24490</v>
       </c>
       <c r="B482" s="10">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C482" s="10" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="D482" s="10" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="E482" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F482" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F482" s="12"/>
+    </row>
+    <row r="483" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A483" s="10">
-        <v>24540</v>
+        <v>24490</v>
       </c>
       <c r="B483" s="10">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C483" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D483" s="10" t="s">
-        <v>302</v>
+        <v>154</v>
+      </c>
+      <c r="D483" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="E483" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F483" s="12"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A484" s="10">
-        <v>24490</v>
+        <v>24565</v>
       </c>
       <c r="B484" s="10">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C484" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D484" s="10" t="s">
-        <v>327</v>
+        <v>236</v>
+      </c>
+      <c r="D484" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="E484" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F484" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F484" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="485" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A485" s="10">
-        <v>24490</v>
-      </c>
-      <c r="B485" s="10">
-        <v>9</v>
-      </c>
-      <c r="C485" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D485" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E485" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F485" s="12"/>
+      <c r="A485" s="15">
+        <v>24575</v>
+      </c>
+      <c r="B485" s="15">
+        <v>80</v>
+      </c>
+      <c r="C485" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D485" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E485" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F485" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G485" s="15"/>
+      <c r="H485" s="15"/>
     </row>
     <row r="486" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A486" s="10">
-        <v>24565</v>
+        <v>24598</v>
       </c>
       <c r="B486" s="10">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C486" s="10" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="D486" s="11" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E486" s="10" t="s">
         <v>10</v>
@@ -11195,39 +11196,37 @@
       </c>
     </row>
     <row r="487" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A487" s="15">
-        <v>24575</v>
-      </c>
-      <c r="B487" s="15">
-        <v>80</v>
-      </c>
-      <c r="C487" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D487" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E487" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F487" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G487" s="15"/>
-      <c r="H487" s="15"/>
+      <c r="A487" s="10">
+        <v>24853</v>
+      </c>
+      <c r="B487" s="10">
+        <v>112</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D487" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F487" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="488" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A488" s="10">
-        <v>24598</v>
+        <v>24892</v>
       </c>
       <c r="B488" s="10">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C488" s="10" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="D488" s="11" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="E488" s="10" t="s">
         <v>10</v>
@@ -11238,16 +11237,16 @@
     </row>
     <row r="489" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A489" s="10">
-        <v>24853</v>
+        <v>24513</v>
       </c>
       <c r="B489" s="10">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C489" s="10" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D489" s="11" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="E489" s="10" t="s">
         <v>10</v>
@@ -11258,16 +11257,16 @@
     </row>
     <row r="490" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A490" s="10">
-        <v>24892</v>
+        <v>25057</v>
       </c>
       <c r="B490" s="10">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C490" s="10" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D490" s="11" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="E490" s="10" t="s">
         <v>10</v>
@@ -11278,16 +11277,16 @@
     </row>
     <row r="491" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A491" s="10">
-        <v>24513</v>
+        <v>25057</v>
       </c>
       <c r="B491" s="10">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="D491" s="11" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="E491" s="10" t="s">
         <v>10</v>
@@ -11301,10 +11300,10 @@
         <v>25057</v>
       </c>
       <c r="B492" s="10">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C492" s="10" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D492" s="11" t="s">
         <v>140</v>
@@ -11321,10 +11320,10 @@
         <v>25057</v>
       </c>
       <c r="B493" s="10">
+        <v>50</v>
+      </c>
+      <c r="C493" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C493" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="D493" s="11" t="s">
         <v>140</v>
@@ -11341,30 +11340,28 @@
         <v>25057</v>
       </c>
       <c r="B494" s="10">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C494" s="10" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D494" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E494" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F494" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F494" s="12"/>
     </row>
     <row r="495" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A495" s="10">
         <v>25057</v>
       </c>
       <c r="B495" s="10">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="D495" s="11" t="s">
         <v>140</v>
@@ -11381,22 +11378,24 @@
         <v>25057</v>
       </c>
       <c r="B496" s="10">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C496" s="10" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E496" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F496" s="12"/>
-    </row>
-    <row r="497" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F496" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="10">
-        <v>25057</v>
+        <v>25079</v>
       </c>
       <c r="B497" s="10">
         <v>66</v>
@@ -11404,8 +11403,8 @@
       <c r="C497" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D497" s="11" t="s">
-        <v>140</v>
+      <c r="D497" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="E497" s="10" t="s">
         <v>10</v>
@@ -11414,162 +11413,160 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="10">
-        <v>25057</v>
+        <v>25146</v>
       </c>
       <c r="B498" s="10">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C498" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D498" s="11" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="D498" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="E498" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F498" s="10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="10">
-        <v>25079</v>
+        <v>25146</v>
       </c>
       <c r="B499" s="10">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="D499" s="10" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="E499" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F499" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F499" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A500" s="10">
-        <v>25146</v>
+        <v>25236</v>
       </c>
       <c r="B500" s="10">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C500" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D500" s="10" t="s">
-        <v>103</v>
+        <v>39</v>
+      </c>
+      <c r="D500" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E500" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F500" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A501" s="10">
-        <v>25146</v>
+        <v>25239</v>
       </c>
       <c r="B501" s="10">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D501" s="10" t="s">
-        <v>308</v>
+        <v>283</v>
+      </c>
+      <c r="D501" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E501" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F501" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F501" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="10">
-        <v>25236</v>
+        <v>25263</v>
       </c>
       <c r="B502" s="10">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C502" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D502" s="11" t="s">
-        <v>40</v>
+        <v>148</v>
+      </c>
+      <c r="D502" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="E502" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F502" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="10">
-        <v>25239</v>
+        <v>25263</v>
       </c>
       <c r="B503" s="10">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D503" s="11" t="s">
-        <v>40</v>
+        <v>148</v>
+      </c>
+      <c r="D503" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="E503" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F503" s="12" t="s">
+      <c r="F503" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="10">
-        <v>25263</v>
+        <v>25264</v>
       </c>
       <c r="B504" s="10">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C504" s="10" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="D504" s="10" t="s">
-        <v>317</v>
+        <v>147</v>
       </c>
       <c r="E504" s="10" t="s">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="F504" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="10">
-        <v>25263</v>
+        <v>25264</v>
       </c>
       <c r="B505" s="10">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="D505" s="10" t="s">
-        <v>147</v>
+        <v>317</v>
       </c>
       <c r="E505" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F505" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F505" s="12"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="10">
@@ -11582,54 +11579,54 @@
         <v>258</v>
       </c>
       <c r="D506" s="10" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="E506" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F506" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F506" s="12"/>
+    </row>
+    <row r="507" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A507" s="10">
-        <v>25264</v>
+        <v>24557</v>
       </c>
       <c r="B507" s="10">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D507" s="10" t="s">
-        <v>317</v>
+        <v>154</v>
+      </c>
+      <c r="D507" s="11" t="s">
+        <v>372</v>
       </c>
       <c r="E507" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F507" s="12"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A508" s="10">
-        <v>25264</v>
+        <v>24557</v>
       </c>
       <c r="B508" s="10">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C508" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D508" s="10" t="s">
-        <v>386</v>
+        <v>154</v>
+      </c>
+      <c r="D508" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="E508" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F508" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F508" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="509" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A509" s="10">
-        <v>24557</v>
+        <v>24912</v>
       </c>
       <c r="B509" s="10">
         <v>9</v>
@@ -11638,16 +11635,18 @@
         <v>154</v>
       </c>
       <c r="D509" s="11" t="s">
-        <v>372</v>
+        <v>181</v>
       </c>
       <c r="E509" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F509" s="12"/>
-    </row>
-    <row r="510" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F509" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="10">
-        <v>24557</v>
+        <v>25336</v>
       </c>
       <c r="B510" s="10">
         <v>9</v>
@@ -11655,8 +11654,8 @@
       <c r="C510" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D510" s="11" t="s">
-        <v>186</v>
+      <c r="D510" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="E510" s="10" t="s">
         <v>10</v>
@@ -11667,7 +11666,7 @@
     </row>
     <row r="511" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A511" s="10">
-        <v>24912</v>
+        <v>25587</v>
       </c>
       <c r="B511" s="10">
         <v>9</v>
@@ -11676,7 +11675,7 @@
         <v>154</v>
       </c>
       <c r="D511" s="11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E511" s="10" t="s">
         <v>10</v>
@@ -11687,42 +11686,39 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="10">
-        <v>25336</v>
+        <v>25886</v>
       </c>
       <c r="B512" s="10">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C512" s="10" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="D512" s="10" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="E512" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F512" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F512" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="10">
-        <v>25587</v>
+        <v>25886</v>
       </c>
       <c r="B513" s="10">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D513" s="11" t="s">
-        <v>188</v>
+        <v>39</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="E513" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F513" s="12" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -11736,44 +11732,47 @@
         <v>39</v>
       </c>
       <c r="D514" s="10" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="E514" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F514" s="10" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A515" s="10">
-        <v>25886</v>
+      <c r="A515" s="12">
+        <v>25980</v>
       </c>
       <c r="B515" s="10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D515" s="10" t="s">
-        <v>299</v>
+        <v>8</v>
+      </c>
+      <c r="D515" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E515" s="10" t="s">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="F515" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G515" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="10">
-        <v>25886</v>
+      <c r="A516" s="12">
+        <v>25980</v>
       </c>
       <c r="B516" s="10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C516" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D516" s="10" t="s">
-        <v>300</v>
+        <v>8</v>
+      </c>
+      <c r="D516" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="E516" s="10" t="s">
         <v>290</v>
@@ -11790,16 +11789,10 @@
         <v>8</v>
       </c>
       <c r="D517" s="12" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="E517" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F517" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G517" s="10" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -11813,44 +11806,50 @@
         <v>8</v>
       </c>
       <c r="D518" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E518" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" s="12">
-        <v>25980</v>
+    <row r="519" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A519" s="10">
+        <v>26003</v>
       </c>
       <c r="B519" s="10">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D519" s="12" t="s">
-        <v>291</v>
+        <v>48</v>
+      </c>
+      <c r="D519" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="E519" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="12">
-        <v>25980</v>
+        <v>10</v>
+      </c>
+      <c r="F519" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A520" s="10">
+        <v>26003</v>
       </c>
       <c r="B520" s="10">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D520" s="12" t="s">
-        <v>292</v>
+        <v>48</v>
+      </c>
+      <c r="D520" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="E520" s="10" t="s">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="F520" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="521" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -11864,7 +11863,7 @@
         <v>48</v>
       </c>
       <c r="D521" s="11" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="E521" s="10" t="s">
         <v>10</v>
@@ -11884,7 +11883,7 @@
         <v>48</v>
       </c>
       <c r="D522" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E522" s="10" t="s">
         <v>10</v>
@@ -11904,7 +11903,7 @@
         <v>48</v>
       </c>
       <c r="D523" s="11" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="E523" s="10" t="s">
         <v>10</v>
@@ -11924,7 +11923,7 @@
         <v>48</v>
       </c>
       <c r="D524" s="11" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E524" s="10" t="s">
         <v>10</v>
@@ -11935,16 +11934,16 @@
     </row>
     <row r="525" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A525" s="10">
-        <v>26003</v>
+        <v>26004</v>
       </c>
       <c r="B525" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="D525" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E525" s="10" t="s">
         <v>10</v>
@@ -11955,16 +11954,16 @@
     </row>
     <row r="526" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A526" s="10">
-        <v>26003</v>
+        <v>26004</v>
       </c>
       <c r="B526" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="D526" s="11" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="E526" s="10" t="s">
         <v>10</v>
@@ -11984,7 +11983,7 @@
         <v>283</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="E527" s="10" t="s">
         <v>10</v>
@@ -12004,7 +12003,7 @@
         <v>283</v>
       </c>
       <c r="D528" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E528" s="10" t="s">
         <v>10</v>
@@ -12013,7 +12012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A529" s="10">
         <v>26004</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>283</v>
       </c>
       <c r="D529" s="11" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="E529" s="10" t="s">
         <v>10</v>
@@ -12033,7 +12032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A530" s="10">
         <v>26004</v>
       </c>
@@ -12044,7 +12043,7 @@
         <v>283</v>
       </c>
       <c r="D530" s="11" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E530" s="10" t="s">
         <v>10</v>
@@ -12053,47 +12052,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A531" s="10">
-        <v>26004</v>
+        <v>26005</v>
       </c>
       <c r="B531" s="10">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D531" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E531" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F531" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A532" s="10">
-        <v>26004</v>
+        <v>26005</v>
       </c>
       <c r="B532" s="10">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C532" s="10" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D532" s="11" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="E532" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F532" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="10">
         <v>26005</v>
       </c>
@@ -12103,8 +12102,8 @@
       <c r="C533" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D533" s="11" t="s">
-        <v>242</v>
+      <c r="D533" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="E533" s="10" t="s">
         <v>10</v>
@@ -12113,7 +12112,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A534" s="10">
         <v>26005</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>236</v>
       </c>
       <c r="D534" s="11" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="E534" s="10" t="s">
         <v>10</v>
@@ -12133,7 +12132,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A535" s="10">
         <v>26005</v>
       </c>
@@ -12143,8 +12142,8 @@
       <c r="C535" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D535" s="10" t="s">
-        <v>286</v>
+      <c r="D535" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="E535" s="10" t="s">
         <v>10</v>
@@ -12153,7 +12152,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="10">
         <v>26005</v>
       </c>
@@ -12163,8 +12162,8 @@
       <c r="C536" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D536" s="11" t="s">
-        <v>244</v>
+      <c r="D536" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="E536" s="10" t="s">
         <v>10</v>
@@ -12173,47 +12172,47 @@
         <v>191</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A537" s="10">
-        <v>26005</v>
+        <v>26008</v>
       </c>
       <c r="B537" s="10">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D537" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E537" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F537" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A538" s="10">
-        <v>26005</v>
+        <v>26008</v>
       </c>
       <c r="B538" s="10">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C538" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D538" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="D538" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="E538" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F538" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A539" s="10">
         <v>26008</v>
       </c>
@@ -12224,16 +12223,11 @@
         <v>284</v>
       </c>
       <c r="D539" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E539" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F539" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="F539" s="12"/>
+    </row>
+    <row r="540" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A540" s="10">
         <v>26008</v>
       </c>
@@ -12244,7 +12238,7 @@
         <v>284</v>
       </c>
       <c r="D540" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E540" s="10" t="s">
         <v>10</v>
@@ -12253,7 +12247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A541" s="10">
         <v>26008</v>
       </c>
@@ -12264,11 +12258,16 @@
         <v>284</v>
       </c>
       <c r="D541" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F541" s="12"/>
-    </row>
-    <row r="542" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="E541" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F541" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A542" s="10">
         <v>26008</v>
       </c>
@@ -12279,7 +12278,7 @@
         <v>284</v>
       </c>
       <c r="D542" s="11" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="E542" s="10" t="s">
         <v>10</v>
@@ -12288,7 +12287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A543" s="10">
         <v>26008</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>284</v>
       </c>
       <c r="D543" s="11" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="E543" s="10" t="s">
         <v>10</v>
@@ -12308,68 +12307,72 @@
         <v>47</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="10">
-        <v>26008</v>
+        <v>24575</v>
       </c>
       <c r="B544" s="10">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C544" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D544" s="11" t="s">
-        <v>244</v>
+        <v>250</v>
+      </c>
+      <c r="D544" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="E544" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F544" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A545" s="10">
-        <v>26008</v>
+      <c r="F544" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G544" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" s="15">
+        <v>25843</v>
       </c>
       <c r="B545" s="10">
-        <v>48</v>
-      </c>
-      <c r="C545" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D545" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E545" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F545" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C545" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D545" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E545" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F545" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G545" s="15"/>
+      <c r="H545" s="15"/>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A546" s="10">
-        <v>24575</v>
+      <c r="A546" s="15">
+        <v>25843</v>
       </c>
       <c r="B546" s="10">
-        <v>169</v>
-      </c>
-      <c r="C546" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D546" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E546" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F546" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G546" s="10" t="s">
-        <v>259</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C546" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D546" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E546" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F546" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G546" s="15"/>
+      <c r="H546" s="15"/>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="15">
@@ -12382,7 +12385,7 @@
         <v>154</v>
       </c>
       <c r="D547" s="15" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="E547" s="15" t="s">
         <v>10</v>
@@ -12393,53 +12396,49 @@
       <c r="G547" s="15"/>
       <c r="H547" s="15"/>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A548" s="15">
-        <v>25843</v>
+    <row r="548" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A548" s="12">
+        <v>60011</v>
       </c>
       <c r="B548" s="10">
         <v>9</v>
       </c>
-      <c r="C548" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D548" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="E548" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F548" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G548" s="15"/>
-      <c r="H548" s="15"/>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A549" s="15">
-        <v>25843</v>
+      <c r="C548" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D548" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E548" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F548" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A549" s="12">
+        <v>60011</v>
       </c>
       <c r="B549" s="10">
         <v>9</v>
       </c>
-      <c r="C549" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D549" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E549" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F549" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G549" s="15"/>
-      <c r="H549" s="15"/>
+      <c r="C549" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D549" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E549" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F549" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="550" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A550" s="12">
-        <v>60011</v>
+        <v>60012</v>
       </c>
       <c r="B550" s="10">
         <v>9</v>
@@ -12448,7 +12447,7 @@
         <v>20</v>
       </c>
       <c r="D550" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E550" s="10" t="s">
         <v>10</v>
@@ -12459,7 +12458,7 @@
     </row>
     <row r="551" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A551" s="12">
-        <v>60011</v>
+        <v>60012</v>
       </c>
       <c r="B551" s="10">
         <v>9</v>
@@ -12468,18 +12467,15 @@
         <v>20</v>
       </c>
       <c r="D551" s="11" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="E551" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F551" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A552" s="12">
-        <v>60012</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="10">
+        <v>60083</v>
       </c>
       <c r="B552" s="10">
         <v>9</v>
@@ -12487,8 +12483,8 @@
       <c r="C552" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D552" s="11" t="s">
-        <v>14</v>
+      <c r="D552" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E552" s="10" t="s">
         <v>10</v>
@@ -12497,9 +12493,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A553" s="12">
-        <v>60012</v>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="10">
+        <v>60083</v>
       </c>
       <c r="B553" s="10">
         <v>9</v>
@@ -12507,8 +12503,8 @@
       <c r="C553" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D553" s="11" t="s">
-        <v>293</v>
+      <c r="D553" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="E553" s="10" t="s">
         <v>290</v>
@@ -12525,18 +12521,15 @@
         <v>20</v>
       </c>
       <c r="D554" s="12" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="E554" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F554" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A555" s="10">
-        <v>60083</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A555" s="12">
+        <v>60015</v>
       </c>
       <c r="B555" s="10">
         <v>9</v>
@@ -12544,16 +12537,19 @@
       <c r="C555" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D555" s="12" t="s">
-        <v>295</v>
+      <c r="D555" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E555" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A556" s="10">
-        <v>60083</v>
+        <v>10</v>
+      </c>
+      <c r="F555" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A556" s="12">
+        <v>60016</v>
       </c>
       <c r="B556" s="10">
         <v>9</v>
@@ -12561,56 +12557,59 @@
       <c r="C556" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D556" s="12" t="s">
-        <v>296</v>
+      <c r="D556" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E556" s="10" t="s">
-        <v>290</v>
+        <v>10</v>
+      </c>
+      <c r="F556" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A557" s="12">
-        <v>60015</v>
+      <c r="A557" s="10">
+        <v>60028</v>
       </c>
       <c r="B557" s="10">
         <v>9</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D557" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E557" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F557" s="10" t="s">
+      <c r="F557" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="558" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A558" s="12">
-        <v>60016</v>
+      <c r="A558" s="10">
+        <v>60085</v>
       </c>
       <c r="B558" s="10">
         <v>9</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D558" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E558" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F558" s="10" t="s">
+      <c r="F558" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="559" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A559" s="10">
-        <v>60028</v>
+        <v>60086</v>
       </c>
       <c r="B559" s="10">
         <v>9</v>
@@ -12619,7 +12618,7 @@
         <v>154</v>
       </c>
       <c r="D559" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E559" s="10" t="s">
         <v>10</v>
@@ -12630,7 +12629,7 @@
     </row>
     <row r="560" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A560" s="10">
-        <v>60085</v>
+        <v>60087</v>
       </c>
       <c r="B560" s="10">
         <v>9</v>
@@ -12648,9 +12647,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="10">
-        <v>60086</v>
+        <v>60088</v>
       </c>
       <c r="B561" s="10">
         <v>9</v>
@@ -12658,8 +12657,8 @@
       <c r="C561" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D561" s="11" t="s">
-        <v>9</v>
+      <c r="D561" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="E561" s="10" t="s">
         <v>10</v>
@@ -12668,9 +12667,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="10">
-        <v>60087</v>
+        <v>60089</v>
       </c>
       <c r="B562" s="10">
         <v>9</v>
@@ -12678,19 +12677,17 @@
       <c r="C562" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D562" s="11" t="s">
-        <v>15</v>
+      <c r="D562" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="E562" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F562" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F562" s="12"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="10">
-        <v>60088</v>
+        <v>60089</v>
       </c>
       <c r="B563" s="10">
         <v>9</v>
@@ -12699,10 +12696,10 @@
         <v>154</v>
       </c>
       <c r="D563" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E563" s="10" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="F563" s="12" t="s">
         <v>12</v>
@@ -12719,7 +12716,7 @@
         <v>154</v>
       </c>
       <c r="D564" s="10" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="E564" s="10" t="s">
         <v>321</v>
@@ -12737,14 +12734,12 @@
         <v>154</v>
       </c>
       <c r="D565" s="10" t="s">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="E565" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="F565" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="F565" s="12"/>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="10">
@@ -12757,14 +12752,14 @@
         <v>154</v>
       </c>
       <c r="D566" s="10" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="E566" s="10" t="s">
         <v>321</v>
       </c>
       <c r="F566" s="12"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A567" s="10">
         <v>60089</v>
       </c>
@@ -12774,44 +12769,48 @@
       <c r="C567" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D567" s="10" t="s">
+      <c r="D567" s="21" t="s">
         <v>328</v>
       </c>
       <c r="E567" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F567" s="12"/>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F567" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A568" s="10">
-        <v>60089</v>
+        <v>70000</v>
       </c>
       <c r="B568" s="10">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C568" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D568" s="10" t="s">
-        <v>322</v>
+        <v>236</v>
+      </c>
+      <c r="D568" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E568" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F568" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F568" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="569" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A569" s="10">
-        <v>60089</v>
+        <v>70001</v>
       </c>
       <c r="B569" s="10">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D569" s="21" t="s">
-        <v>328</v>
+        <v>236</v>
+      </c>
+      <c r="D569" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="E569" s="10" t="s">
         <v>10</v>
@@ -12820,9 +12819,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="10">
-        <v>70000</v>
+        <v>70002</v>
       </c>
       <c r="B570" s="10">
         <v>66</v>
@@ -12830,8 +12829,8 @@
       <c r="C570" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D570" s="11" t="s">
-        <v>121</v>
+      <c r="D570" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="E570" s="10" t="s">
         <v>10</v>
@@ -12842,35 +12841,35 @@
     </row>
     <row r="571" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A571" s="10">
-        <v>70001</v>
+        <v>70020</v>
       </c>
       <c r="B571" s="10">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="D571" s="11" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="E571" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F571" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F571" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A572" s="10">
-        <v>70002</v>
+        <v>80000</v>
       </c>
       <c r="B572" s="10">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C572" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D572" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D572" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E572" s="10" t="s">
@@ -12880,76 +12879,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A573" s="10">
-        <v>70020</v>
-      </c>
-      <c r="B573" s="10">
-        <v>91</v>
-      </c>
-      <c r="C573" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D573" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E573" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F573" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A574" s="10">
-        <v>80000</v>
-      </c>
-      <c r="B574" s="10">
-        <v>49</v>
-      </c>
-      <c r="C574" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D574" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E574" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F574" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="577" spans="4:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D575" s="18"/>
+      <c r="F575" s="12"/>
+    </row>
+    <row r="576" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D576" s="18"/>
+      <c r="F576" s="12"/>
+    </row>
+    <row r="577" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D577" s="18"/>
       <c r="F577" s="12"/>
     </row>
-    <row r="578" spans="4:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D578" s="18"/>
-      <c r="F578" s="12"/>
-    </row>
-    <row r="579" spans="4:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D579" s="18"/>
-      <c r="F579" s="12"/>
-    </row>
-    <row r="580" spans="4:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D580" s="11"/>
-    </row>
-    <row r="581" spans="4:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D581" s="11"/>
-    </row>
-    <row r="582" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D582" s="10" t="s">
+    <row r="578" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D578" s="11"/>
+    </row>
+    <row r="579" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D579" s="11"/>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D580" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E582" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F582" s="12" t="s">
+      <c r="E580" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F580" s="12" t="s">
         <v>191</v>
       </c>
     </row>
+    <row r="581" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A581" s="10">
+        <v>7029</v>
+      </c>
+      <c r="B581" s="10">
+        <v>49</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D581" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="E581" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F581" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J581"/>
   <sortState ref="A111:H570">
     <sortCondition ref="A1"/>
   </sortState>
